--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>User</t>
   </si>
@@ -49,6 +49,9 @@
     <t>R_RR</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>yuhang1070</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t>The Anti-Spoofers</t>
   </si>
   <si>
+    <t>MengHu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenghaoZhou </t>
+  </si>
+  <si>
     <t>JDD</t>
   </si>
   <si>
@@ -77,6 +86,21 @@
   </si>
   <si>
     <t>PCALab_DeepInsight</t>
+  </si>
+  <si>
+    <t>HongshengWang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HongshengWang </t>
+  </si>
+  <si>
+    <t>Unstable length of outputs and wrong submission type</t>
+  </si>
+  <si>
+    <t>weiranhan516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Institute for image analysis and intelligent systems </t>
   </si>
 </sst>
 </file>
@@ -85,12 +109,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +140,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,130 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +299,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,37 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,109 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +490,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,21 +527,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -506,30 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +558,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,169 +595,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,44 +1097,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="true"/>
-    <col min="2" max="2" width="18.9" customWidth="true"/>
+    <col min="2" max="2" width="43.06" customWidth="true"/>
     <col min="3" max="4" width="11.4"/>
-    <col min="5" max="5" width="9.3"/>
-    <col min="6" max="6" width="10.3"/>
-    <col min="7" max="7" width="9.3"/>
+    <col min="5" max="7" width="10.3"/>
     <col min="8" max="8" width="9.1" customWidth="true"/>
-    <col min="11" max="11" width="18.8066666666667" customWidth="true"/>
+    <col min="11" max="11" width="44.3733333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1097,163 +1144,257 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>121.359912</v>
-      </c>
-      <c r="D2" s="3">
-        <v>155.106413</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.108108</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10.655033</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.657129</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>117.762941</v>
+      </c>
+      <c r="D2" s="4">
+        <v>156.096247</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.268372</v>
+      </c>
+      <c r="F2" s="4">
+        <v>11.402358</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.629154</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
-        <v>141.983356</v>
-      </c>
-      <c r="D3" s="6">
-        <v>160.676578</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8.866834</v>
-      </c>
-      <c r="F3" s="6">
-        <v>13.537798</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.373402</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
+        <v>123.023084</v>
+      </c>
+      <c r="D3" s="7">
+        <v>155.173848</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7.480858</v>
+      </c>
+      <c r="F3" s="7">
+        <v>11.259764</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.561571</v>
+      </c>
+      <c r="H3" s="4">
         <v>7.576729</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>9.602963</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>0.435503</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
         <v>241.057017</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>180.600007</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>21.561276</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>26.430754</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.02112</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
         <v>245.761553</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>168.395927</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>20.533996</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>26.693074</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.192527</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>7.9288</v>
-      </c>
-      <c r="I6" s="3">
-        <v>9.900362</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.074964</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>273.527974</v>
+      </c>
+      <c r="D6" s="4">
+        <v>171.128302</v>
+      </c>
+      <c r="E6" s="4">
+        <v>23.885096</v>
+      </c>
+      <c r="F6" s="4">
+        <v>27.960256</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-0.031432</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>295.699612</v>
+      </c>
+      <c r="D7" s="4">
+        <v>175.242643</v>
+      </c>
+      <c r="E7" s="4">
+        <v>29.243651</v>
+      </c>
+      <c r="F7" s="4">
+        <v>33.686201</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-0.104534</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>7.733422</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9.312834</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.107644</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>9.135315</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I9" s="4">
         <v>11.1282</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J9" s="4">
         <v>0.168174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J7">
+  <sortState ref="A2:K11">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>User</t>
   </si>
@@ -64,21 +64,27 @@
     <t>Dr. L</t>
   </si>
   <si>
+    <t>zkyezhang_</t>
+  </si>
+  <si>
+    <t>The Anti-Spoofers</t>
+  </si>
+  <si>
     <t>shankejinjiboy</t>
   </si>
   <si>
-    <t>zkyezhang_</t>
-  </si>
-  <si>
-    <t>The Anti-Spoofers</t>
-  </si>
-  <si>
     <t>MengHu</t>
   </si>
   <si>
+    <t>ZJUT-WTCrPPG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MenghaoZhou </t>
   </si>
   <si>
+    <t>ZJUT-ASTrPPG</t>
+  </si>
+  <si>
     <t>JDD</t>
   </si>
   <si>
@@ -91,16 +97,10 @@
     <t>HongshengWang</t>
   </si>
   <si>
-    <t xml:space="preserve">HongshengWang </t>
-  </si>
-  <si>
     <t>Unstable length of outputs and wrong submission type</t>
   </si>
   <si>
     <t>weiranhan516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Institute for image analysis and intelligent systems </t>
   </si>
 </sst>
 </file>
@@ -109,12 +109,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -146,9 +151,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,120 +260,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,37 +304,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,127 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,9 +524,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,21 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -564,219 +595,211 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,301 +1120,310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.7" customWidth="true"/>
-    <col min="2" max="2" width="43.06" customWidth="true"/>
-    <col min="3" max="4" width="11.4"/>
-    <col min="5" max="7" width="10.3"/>
-    <col min="8" max="8" width="9.1" customWidth="true"/>
-    <col min="11" max="11" width="44.3733333333333" customWidth="true"/>
+    <col min="1" max="1" width="13.7" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.6866666666667" style="1" customWidth="true"/>
+    <col min="3" max="4" width="11.4" style="1"/>
+    <col min="5" max="7" width="10.3" style="1"/>
+    <col min="8" max="8" width="9.1" style="1" customWidth="true"/>
+    <col min="9" max="10" width="8.8" style="1"/>
+    <col min="11" max="11" width="44.3733333333333" style="1" customWidth="true"/>
+    <col min="12" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
-        <v>117.762941</v>
-      </c>
-      <c r="D2" s="4">
-        <v>156.096247</v>
-      </c>
-      <c r="E2" s="4">
-        <v>7.268372</v>
-      </c>
-      <c r="F2" s="4">
-        <v>11.402358</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.629154</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="5">
+        <v>117.247757</v>
+      </c>
+      <c r="D2" s="5">
+        <v>153.181845</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7.305621</v>
+      </c>
+      <c r="F2" s="5">
+        <v>11.438957</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.61594</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7">
-        <v>123.023084</v>
-      </c>
-      <c r="D3" s="7">
-        <v>155.173848</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.480858</v>
-      </c>
-      <c r="F3" s="7">
-        <v>11.259764</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.561571</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="C3" s="8">
+        <v>122.796348</v>
+      </c>
+      <c r="D3" s="8">
+        <v>153.907907</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7.286381</v>
+      </c>
+      <c r="F3" s="8">
+        <v>11.046205</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.572869</v>
+      </c>
+      <c r="H3" s="12">
         <v>7.576729</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="12">
         <v>9.602963</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="12">
         <v>0.435503</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>241.057017</v>
-      </c>
-      <c r="D4" s="4">
-        <v>180.600007</v>
-      </c>
-      <c r="E4" s="4">
-        <v>21.561276</v>
-      </c>
-      <c r="F4" s="4">
-        <v>26.430754</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.02112</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>168.079388</v>
+      </c>
+      <c r="D4" s="5">
+        <v>162.816285</v>
+      </c>
+      <c r="E4" s="5">
+        <v>11.836345</v>
+      </c>
+      <c r="F4" s="5">
+        <v>14.509491</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.024184</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
-        <v>245.761553</v>
-      </c>
-      <c r="D5" s="4">
-        <v>168.395927</v>
-      </c>
-      <c r="E5" s="4">
-        <v>20.533996</v>
-      </c>
-      <c r="F5" s="4">
-        <v>26.693074</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.192527</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>241.057017</v>
+      </c>
+      <c r="D5" s="5">
+        <v>180.600007</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21.561276</v>
+      </c>
+      <c r="F5" s="5">
+        <v>26.430754</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.02112</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
         <v>273.527974</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>171.128302</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>23.885096</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>27.960256</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>-0.031432</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
         <v>295.699612</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>175.242643</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>29.243651</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>33.686201</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>-0.104534</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>7.733422</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9.312834</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.107644</v>
-      </c>
-      <c r="K8" s="11"/>
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>7.559858</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9.044168</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.011034</v>
+      </c>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>9.135315</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>11.1282</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>0.168174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:K11">

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>User</t>
   </si>
@@ -49,9 +49,6 @@
     <t>R_RR</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>yuhang1070</t>
   </si>
   <si>
@@ -85,22 +82,13 @@
     <t>ZJUT-ASTrPPG</t>
   </si>
   <si>
+    <t>lingbixiao</t>
+  </si>
+  <si>
+    <t>PCALab_DeepInsight</t>
+  </si>
+  <si>
     <t>JDD</t>
-  </si>
-  <si>
-    <t>lingbixiao</t>
-  </si>
-  <si>
-    <t>PCALab_DeepInsight</t>
-  </si>
-  <si>
-    <t>HongshengWang</t>
-  </si>
-  <si>
-    <t>Unstable length of outputs and wrong submission type</t>
-  </si>
-  <si>
-    <t>weiranhan516</t>
   </si>
 </sst>
 </file>
@@ -109,12 +97,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,45 +127,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,98 +182,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,181 +293,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,36 +481,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,6 +515,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -572,17 +544,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,157 +563,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +756,11 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,10 +776,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1106,8 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1134,11 +1118,11 @@
     <col min="5" max="7" width="10.3" style="1"/>
     <col min="8" max="8" width="9.1" style="1" customWidth="true"/>
     <col min="9" max="10" width="8.8" style="1"/>
-    <col min="11" max="11" width="44.3733333333333" style="1" customWidth="true"/>
+    <col min="11" max="11" width="8.12666666666667" style="1" customWidth="true"/>
     <col min="12" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,17 +1152,14 @@
       </c>
       <c r="J1" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>117.247757</v>
@@ -1200,12 +1181,12 @@
       <c r="J2" s="5"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="8">
         <v>122.796348</v>
@@ -1222,22 +1203,23 @@
       <c r="G3" s="8">
         <v>0.572869</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="5">
         <v>7.576729</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="5">
         <v>9.602963</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="5">
         <v>0.435503</v>
       </c>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>168.079388</v>
@@ -1258,12 +1240,12 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>241.057017</v>
@@ -1283,13 +1265,14 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
+      <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>273.527974</v>
@@ -1309,13 +1292,14 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
+      <c r="K6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>295.699612</v>
@@ -1338,9 +1322,9 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5"/>
@@ -1349,22 +1333,22 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>7.559858</v>
+        <v>7.22</v>
       </c>
       <c r="I8" s="5">
-        <v>9.044168</v>
+        <v>8.851389</v>
       </c>
       <c r="J8" s="5">
-        <v>0.011034</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>0.013525</v>
+      </c>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1372,20 +1356,18 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
-        <v>9.135315</v>
+        <v>7.559858</v>
       </c>
       <c r="I9" s="5">
-        <v>11.1282</v>
+        <v>9.044168</v>
       </c>
       <c r="J9" s="5">
-        <v>0.168174</v>
+        <v>0.011034</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1394,15 +1376,11 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1411,22 +1389,20 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K11">
+  <sortState ref="A2:K14">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -95,12 +95,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -728,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,7 +746,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -753,7 +755,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
@@ -761,7 +763,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
@@ -771,6 +773,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
@@ -1107,7 +1118,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1179,7 +1190,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1197,22 +1208,22 @@
       <c r="E3" s="8">
         <v>7.286381</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="16">
         <v>11.046205</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="16">
         <v>0.572869</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="17">
         <v>7.576729</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="17">
         <v>9.602963</v>
       </c>
       <c r="J3" s="5">
         <v>0.435503</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -1230,14 +1241,14 @@
       <c r="E4" s="5">
         <v>11.836345</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="17">
         <v>14.509491</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="17">
         <v>0.024184</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:11">
@@ -1248,24 +1259,24 @@
         <v>16</v>
       </c>
       <c r="C5" s="5">
-        <v>241.057017</v>
+        <v>224.41</v>
       </c>
       <c r="D5" s="5">
-        <v>180.600007</v>
+        <v>163.98</v>
       </c>
       <c r="E5" s="5">
-        <v>21.561276</v>
-      </c>
-      <c r="F5" s="5">
-        <v>26.430754</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.02112</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>15.44</v>
+      </c>
+      <c r="F5" s="17">
+        <v>18.75</v>
+      </c>
+      <c r="G5" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -1283,14 +1294,14 @@
       <c r="E6" s="5">
         <v>23.885096</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="17">
         <v>27.960256</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="17">
         <v>-0.031432</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="5"/>
       <c r="K6"/>
     </row>
@@ -1310,14 +1321,14 @@
       <c r="E7" s="5">
         <v>29.243651</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="17">
         <v>33.686201</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="17">
         <v>-0.104534</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11">
@@ -1330,18 +1341,18 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
         <v>7.22</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="17">
         <v>8.851389</v>
       </c>
       <c r="J8" s="5">
         <v>0.013525</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -1353,12 +1364,12 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
         <v>7.559858</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="17">
         <v>9.044168</v>
       </c>
       <c r="J9" s="5">
@@ -1371,12 +1382,12 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13"/>
@@ -1389,7 +1400,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11"/>
